--- a/biology/Zoologie/Cavernocymbium/Cavernocymbium.xlsx
+++ b/biology/Zoologie/Cavernocymbium/Cavernocymbium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cavernocymbium est un genre d'araignées aranéomorphes de la famille des Macrobunidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cavernocymbium est un genre d'araignées aranéomorphes de la famille des Macrobunidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Californie aux États-Unis[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Californie aux États-Unis,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 06/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 06/03/2024) :
 Cavernocymbium prentoglei Ubick, 2005
 Cavernocymbium vetteri Ubick, 2005</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Ubick en 2005 dans les Amaurobiidae. Il est placé dans les Macrobunidae par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Ubick en 2005 dans les Amaurobiidae. Il est placé dans les Macrobunidae par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ubick, 2005 : « New genera and species of cribellate coelotine spiders from California (Araneae: Amaurobiidae). » Proceedings of the California Academy of Sciences, sér. 4, vol. 56 no 24, p. 305-336 (texte intégral).</t>
         </is>
